--- a/uprx/UPRX機能画面確認用一覧/UPRX機能画面確認用一覧.xlsx
+++ b/uprx/UPRX機能画面確認用一覧/UPRX機能画面確認用一覧.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="1515">
   <si>
     <t>func_id</t>
   </si>
@@ -4423,6 +4423,224 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>帮助资料录入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK？选择了是未审核的行。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NG？1第{0}次</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NG？收件人区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NG？对象メニュー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NG？dataProcess.xhtml ファイル種別 等</t>
+    <rPh sb="28" eb="29">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NG？教員</t>
+    <rPh sb="3" eb="5">
+      <t>キョウイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SampleDataに
+&lt;…&gt;あり？</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一覧の幅等レイアウトOK？</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「引用参数的功能」换行, 表格显示不全</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「显示时间」不全</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「行政院系专业」换行,表格显示不全</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>按钮文字之间有空隙</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回答时间显示不全</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「最终更新时间」显示不全</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>翻译问题</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>不存在相应数据</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>授课时间安排录入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Kmc00402</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>翻译问题</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>授课大纲查看</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「考试实施调查表」换行</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>出现滚动</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「更新时间」显示不全</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>时间显示不全</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>K</t>
+    </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -4441,63 +4659,20 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>OK</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>帮助资料录入</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>OK？选择了是未审核的行。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NG？1第{0}次</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NG？收件人区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NG？对象メニュー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NG？dataProcess.xhtml ファイル種別 等</t>
-    <rPh sb="28" eb="29">
-      <t>ナド</t>
+    <t>添加排序方法,两个排序条件相同时,系统错误(日本語版同じ)</t>
+    <rPh sb="22" eb="25">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>NG？教員</t>
-    <rPh sb="3" eb="5">
-      <t>キョウイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>SampleDataに
-&lt;…&gt;あり？</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>一覧の幅等レイアウトOK？</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>有错误,进入不了</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -4506,7 +4681,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
         <charset val="134"/>
@@ -4516,117 +4691,27 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>OK</t>
+    <t>进入不了</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>「引用参数的功能」换行, 表格显示不全</t>
+    <t>无数据</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>「显示时间」不全</t>
+    <t>没找到</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>「行政院系专业」换行,表格显示不全</t>
+    <t>没找到</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>按钮文字之间有空隙</t>
+    <t>无数据</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>回答时间显示不全</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「最终更新时间」显示不全</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>翻译问题</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>不存在相应数据</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>授课时间安排录入</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Kmc00402</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>翻译问题</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>授课大纲查看</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「考试实施调查表」换行</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>出现滚动</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「更新时间」显示不全</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>时间显示不全</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>K</t>
-    </r>
+    <t>系统错误</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4634,7 +4719,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4648,19 +4733,16 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF7F878F"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
@@ -4673,32 +4755,37 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4882,7 +4969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4963,6 +5050,15 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5268,11 +5364,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G607"/>
+  <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <pane ySplit="2" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E484" sqref="E484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5680,7 +5776,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -5694,8 +5790,8 @@
         <v>57</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>1501</v>
+      <c r="F22" s="29" t="s">
+        <v>1506</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -5732,7 +5828,9 @@
         <v>61</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>1511</v>
+      </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5844,7 +5942,9 @@
         <v>79</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="28" t="s">
+        <v>1507</v>
+      </c>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5861,7 +5961,9 @@
         <v>81</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>1511</v>
+      </c>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5878,7 +5980,9 @@
         <v>83</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>1511</v>
+      </c>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5895,7 +5999,9 @@
         <v>85</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>1511</v>
+      </c>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5912,7 +6018,9 @@
         <v>88</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>1503</v>
+      </c>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5929,7 +6037,9 @@
         <v>93</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>1503</v>
+      </c>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5946,7 +6056,9 @@
         <v>95</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>1503</v>
+      </c>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5963,7 +6075,9 @@
         <v>97</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>1503</v>
+      </c>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5980,7 +6094,9 @@
         <v>100</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>1503</v>
+      </c>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6072,7 +6188,9 @@
       <c r="E44" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="7" t="s">
+        <v>1504</v>
+      </c>
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6353,7 +6471,9 @@
         <v>153</v>
       </c>
       <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>1466</v>
+      </c>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6370,7 +6490,9 @@
         <v>117</v>
       </c>
       <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6404,7 +6526,9 @@
         <v>131</v>
       </c>
       <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6421,7 +6545,9 @@
         <v>164</v>
       </c>
       <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6438,7 +6564,9 @@
         <v>166</v>
       </c>
       <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6914,7 +7042,9 @@
       <c r="E88" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F88" s="14"/>
+      <c r="F88" s="7" t="s">
+        <v>1467</v>
+      </c>
       <c r="G88" s="14"/>
     </row>
     <row r="89" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6933,7 +7063,9 @@
       <c r="E89" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F89" s="14"/>
+      <c r="F89" s="7" t="s">
+        <v>1467</v>
+      </c>
       <c r="G89" s="14"/>
     </row>
     <row r="90" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7028,7 +7160,9 @@
       <c r="E94" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F94" s="14"/>
+      <c r="F94" s="7" t="s">
+        <v>1467</v>
+      </c>
       <c r="G94" s="14"/>
     </row>
     <row r="95" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7047,7 +7181,9 @@
       <c r="E95" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F95" s="14"/>
+      <c r="F95" s="7" t="s">
+        <v>1467</v>
+      </c>
       <c r="G95" s="14"/>
     </row>
     <row r="96" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7402,7 +7538,9 @@
       <c r="E112" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F112" s="14"/>
+      <c r="F112" s="7" t="s">
+        <v>1467</v>
+      </c>
       <c r="G112" s="14"/>
     </row>
     <row r="113" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7421,7 +7559,9 @@
       <c r="E113" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F113" s="14"/>
+      <c r="F113" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G113" s="14"/>
     </row>
     <row r="114" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7440,7 +7580,9 @@
       <c r="E114" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F114" s="14"/>
+      <c r="F114" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G114" s="14"/>
     </row>
     <row r="115" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7459,7 +7601,9 @@
       <c r="E115" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F115" s="14"/>
+      <c r="F115" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G115" s="14"/>
     </row>
     <row r="116" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7478,7 +7622,9 @@
       <c r="E116" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F116" s="14"/>
+      <c r="F116" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G116" s="14"/>
     </row>
     <row r="117" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7959,7 +8105,9 @@
       <c r="E139" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F139" s="7"/>
+      <c r="F139" s="22" t="s">
+        <v>1467</v>
+      </c>
       <c r="G139" s="7"/>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8188,7 +8336,9 @@
       <c r="E150" s="14" t="s">
         <v>1466</v>
       </c>
-      <c r="F150" s="21"/>
+      <c r="F150" s="28" t="s">
+        <v>1508</v>
+      </c>
       <c r="G150" s="7"/>
     </row>
     <row r="151" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8321,7 +8471,9 @@
       <c r="E157" s="14" t="s">
         <v>1466</v>
       </c>
-      <c r="F157" s="7"/>
+      <c r="F157" s="7" t="s">
+        <v>1466</v>
+      </c>
       <c r="G157" s="7"/>
     </row>
     <row r="158" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8340,7 +8492,9 @@
       <c r="E158" s="14" t="s">
         <v>1466</v>
       </c>
-      <c r="F158" s="7"/>
+      <c r="F158" s="7" t="s">
+        <v>1466</v>
+      </c>
       <c r="G158" s="7"/>
     </row>
     <row r="159" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8543,7 +8697,9 @@
       <c r="E169" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F169" s="14"/>
+      <c r="F169" s="7" t="s">
+        <v>1467</v>
+      </c>
       <c r="G169" s="14"/>
     </row>
     <row r="170" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10757,7 +10913,9 @@
         <v>692</v>
       </c>
       <c r="E299" s="7"/>
-      <c r="F299" s="7"/>
+      <c r="F299" s="7" t="s">
+        <v>1466</v>
+      </c>
       <c r="G299" s="7"/>
     </row>
     <row r="300" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10774,7 +10932,9 @@
         <v>698</v>
       </c>
       <c r="E300" s="7"/>
-      <c r="F300" s="7"/>
+      <c r="F300" s="7" t="s">
+        <v>1466</v>
+      </c>
       <c r="G300" s="7"/>
     </row>
     <row r="301" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10791,7 +10951,9 @@
         <v>695</v>
       </c>
       <c r="E301" s="7"/>
-      <c r="F301" s="7"/>
+      <c r="F301" s="7" t="s">
+        <v>1466</v>
+      </c>
       <c r="G301" s="7"/>
     </row>
     <row r="302" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10808,7 +10970,9 @@
         <v>701</v>
       </c>
       <c r="E302" s="7"/>
-      <c r="F302" s="7"/>
+      <c r="F302" s="7" t="s">
+        <v>1466</v>
+      </c>
       <c r="G302" s="7"/>
     </row>
     <row r="303" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10825,7 +10989,9 @@
         <v>703</v>
       </c>
       <c r="E303" s="7"/>
-      <c r="F303" s="7"/>
+      <c r="F303" s="7" t="s">
+        <v>1466</v>
+      </c>
       <c r="G303" s="7"/>
     </row>
     <row r="304" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10842,7 +11008,9 @@
         <v>705</v>
       </c>
       <c r="E304" s="7"/>
-      <c r="F304" s="7"/>
+      <c r="F304" s="27" t="s">
+        <v>1512</v>
+      </c>
       <c r="G304" s="7"/>
     </row>
     <row r="305" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10859,7 +11027,9 @@
         <v>707</v>
       </c>
       <c r="E305" s="7"/>
-      <c r="F305" s="7"/>
+      <c r="F305" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G305" s="7"/>
     </row>
     <row r="306" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10876,7 +11046,9 @@
         <v>710</v>
       </c>
       <c r="E306" s="7"/>
-      <c r="F306" s="7"/>
+      <c r="F306" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G306" s="7"/>
     </row>
     <row r="307" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10893,7 +11065,9 @@
         <v>713</v>
       </c>
       <c r="E307" s="7"/>
-      <c r="F307" s="7"/>
+      <c r="F307" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G307" s="7"/>
     </row>
     <row r="308" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10910,7 +11084,9 @@
         <v>692</v>
       </c>
       <c r="E308" s="7"/>
-      <c r="F308" s="7"/>
+      <c r="F308" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G308" s="7"/>
     </row>
     <row r="309" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10927,7 +11103,9 @@
         <v>698</v>
       </c>
       <c r="E309" s="7"/>
-      <c r="F309" s="7"/>
+      <c r="F309" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G309" s="7"/>
     </row>
     <row r="310" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10944,7 +11122,9 @@
         <v>716</v>
       </c>
       <c r="E310" s="7"/>
-      <c r="F310" s="7"/>
+      <c r="F310" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G310" s="7"/>
     </row>
     <row r="311" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10961,7 +11141,9 @@
         <v>723</v>
       </c>
       <c r="E311" s="7"/>
-      <c r="F311" s="7"/>
+      <c r="F311" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G311" s="7"/>
     </row>
     <row r="312" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10978,7 +11160,9 @@
         <v>1447</v>
       </c>
       <c r="E312" s="7"/>
-      <c r="F312" s="7"/>
+      <c r="F312" s="28" t="s">
+        <v>1509</v>
+      </c>
       <c r="G312" s="7"/>
     </row>
     <row r="313" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11432,7 +11616,9 @@
         <v>734</v>
       </c>
       <c r="E336" s="7"/>
-      <c r="F336" s="7"/>
+      <c r="F336" s="27" t="s">
+        <v>1487</v>
+      </c>
       <c r="G336" s="7"/>
     </row>
     <row r="337" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11616,7 +11802,9 @@
         <v>804</v>
       </c>
       <c r="E346" s="7"/>
-      <c r="F346" s="7"/>
+      <c r="F346" s="22" t="s">
+        <v>1467</v>
+      </c>
       <c r="G346" s="7"/>
     </row>
     <row r="347" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11633,7 +11821,9 @@
         <v>807</v>
       </c>
       <c r="E347" s="7"/>
-      <c r="F347" s="7"/>
+      <c r="F347" s="22" t="s">
+        <v>1467</v>
+      </c>
       <c r="G347" s="7"/>
     </row>
     <row r="348" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11650,7 +11840,9 @@
         <v>809</v>
       </c>
       <c r="E348" s="7"/>
-      <c r="F348" s="7"/>
+      <c r="F348" s="27" t="s">
+        <v>1511</v>
+      </c>
       <c r="G348" s="7"/>
     </row>
     <row r="349" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11667,7 +11859,9 @@
         <v>811</v>
       </c>
       <c r="E349" s="7"/>
-      <c r="F349" s="7"/>
+      <c r="F349" s="27" t="s">
+        <v>1511</v>
+      </c>
       <c r="G349" s="7"/>
     </row>
     <row r="350" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11684,7 +11878,9 @@
         <v>813</v>
       </c>
       <c r="E350" s="7"/>
-      <c r="F350" s="7"/>
+      <c r="F350" s="27" t="s">
+        <v>1511</v>
+      </c>
       <c r="G350" s="7"/>
     </row>
     <row r="351" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11739,7 +11935,9 @@
         <v>823</v>
       </c>
       <c r="E353" s="7"/>
-      <c r="F353" s="7"/>
+      <c r="F353" s="22" t="s">
+        <v>1467</v>
+      </c>
       <c r="G353" s="7"/>
     </row>
     <row r="354" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11756,7 +11954,9 @@
         <v>1449</v>
       </c>
       <c r="E354" s="7"/>
-      <c r="F354" s="7"/>
+      <c r="F354" s="22" t="s">
+        <v>1467</v>
+      </c>
       <c r="G354" s="7"/>
     </row>
     <row r="355" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11773,7 +11973,9 @@
         <v>826</v>
       </c>
       <c r="E355" s="7"/>
-      <c r="F355" s="7"/>
+      <c r="F355" s="22" t="s">
+        <v>1467</v>
+      </c>
       <c r="G355" s="7"/>
     </row>
     <row r="356" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11790,7 +11992,9 @@
         <v>828</v>
       </c>
       <c r="E356" s="7"/>
-      <c r="F356" s="7"/>
+      <c r="F356" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G356" s="7"/>
     </row>
     <row r="357" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11807,7 +12011,9 @@
         <v>831</v>
       </c>
       <c r="E357" s="7"/>
-      <c r="F357" s="7"/>
+      <c r="F357" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G357" s="7"/>
     </row>
     <row r="358" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12223,7 +12429,9 @@
         <v>879</v>
       </c>
       <c r="E379" s="7"/>
-      <c r="F379" s="7"/>
+      <c r="F379" s="27" t="s">
+        <v>1510</v>
+      </c>
       <c r="G379" s="7"/>
     </row>
     <row r="380" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12259,7 +12467,9 @@
         <v>884</v>
       </c>
       <c r="E381" s="7"/>
-      <c r="F381" s="7"/>
+      <c r="F381" s="27" t="s">
+        <v>1512</v>
+      </c>
       <c r="G381" s="7"/>
     </row>
     <row r="382" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12276,7 +12486,9 @@
         <v>804</v>
       </c>
       <c r="E382" s="7"/>
-      <c r="F382" s="7"/>
+      <c r="F382" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G382" s="7"/>
     </row>
     <row r="383" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12293,7 +12505,9 @@
         <v>890</v>
       </c>
       <c r="E383" s="7"/>
-      <c r="F383" s="7"/>
+      <c r="F383" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G383" s="7"/>
     </row>
     <row r="384" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12310,7 +12524,9 @@
         <v>892</v>
       </c>
       <c r="E384" s="7"/>
-      <c r="F384" s="7"/>
+      <c r="F384" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G384" s="7"/>
     </row>
     <row r="385" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12327,7 +12543,9 @@
         <v>809</v>
       </c>
       <c r="E385" s="7"/>
-      <c r="F385" s="7"/>
+      <c r="F385" s="27" t="s">
+        <v>1513</v>
+      </c>
       <c r="G385" s="7"/>
     </row>
     <row r="386" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12344,7 +12562,9 @@
         <v>895</v>
       </c>
       <c r="E386" s="7"/>
-      <c r="F386" s="7"/>
+      <c r="F386" s="27" t="s">
+        <v>1512</v>
+      </c>
       <c r="G386" s="7"/>
     </row>
     <row r="387" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12361,7 +12581,9 @@
         <v>828</v>
       </c>
       <c r="E387" s="7"/>
-      <c r="F387" s="7"/>
+      <c r="F387" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G387" s="7"/>
     </row>
     <row r="388" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12378,7 +12600,9 @@
         <v>900</v>
       </c>
       <c r="E388" s="7"/>
-      <c r="F388" s="7"/>
+      <c r="F388" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G388" s="7"/>
     </row>
     <row r="389" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12395,7 +12619,9 @@
         <v>784</v>
       </c>
       <c r="E389" s="7"/>
-      <c r="F389" s="7"/>
+      <c r="F389" s="27" t="s">
+        <v>1514</v>
+      </c>
       <c r="G389" s="7"/>
     </row>
     <row r="390" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12412,7 +12638,9 @@
         <v>903</v>
       </c>
       <c r="E390" s="7"/>
-      <c r="F390" s="7"/>
+      <c r="F390" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G390" s="7"/>
     </row>
     <row r="391" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12429,7 +12657,9 @@
         <v>835</v>
       </c>
       <c r="E391" s="7"/>
-      <c r="F391" s="7"/>
+      <c r="F391" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G391" s="7"/>
     </row>
     <row r="392" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12446,7 +12676,9 @@
         <v>849</v>
       </c>
       <c r="E392" s="7"/>
-      <c r="F392" s="7"/>
+      <c r="F392" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G392" s="7"/>
     </row>
     <row r="393" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12497,7 +12729,9 @@
         <v>871</v>
       </c>
       <c r="E395" s="7"/>
-      <c r="F395" s="7"/>
+      <c r="F395" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G395" s="7"/>
     </row>
     <row r="396" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12514,7 +12748,9 @@
         <v>869</v>
       </c>
       <c r="E396" s="7"/>
-      <c r="F396" s="7"/>
+      <c r="F396" s="27" t="s">
+        <v>1511</v>
+      </c>
       <c r="G396" s="7"/>
     </row>
     <row r="397" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12527,7 +12763,7 @@
       <c r="C397" s="8"/>
       <c r="D397" s="9"/>
       <c r="E397" s="9"/>
-      <c r="F397" s="9"/>
+      <c r="F397" s="7"/>
       <c r="G397" s="9"/>
     </row>
     <row r="398" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12540,7 +12776,7 @@
       <c r="C398" s="8"/>
       <c r="D398" s="9"/>
       <c r="E398" s="9"/>
-      <c r="F398" s="9"/>
+      <c r="F398" s="7"/>
       <c r="G398" s="9"/>
     </row>
     <row r="399" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12557,9 +12793,7 @@
         <v>923</v>
       </c>
       <c r="E399" s="7"/>
-      <c r="F399" s="22" t="s">
-        <v>1488</v>
-      </c>
+      <c r="F399" s="9"/>
       <c r="G399" s="7"/>
     </row>
     <row r="400" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12576,9 +12810,7 @@
         <v>921</v>
       </c>
       <c r="E400" s="7"/>
-      <c r="F400" s="22" t="s">
-        <v>1488</v>
-      </c>
+      <c r="F400" s="9"/>
       <c r="G400" s="7"/>
     </row>
     <row r="401" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12595,7 +12827,9 @@
         <v>926</v>
       </c>
       <c r="E401" s="7"/>
-      <c r="F401" s="7"/>
+      <c r="F401" s="22" t="s">
+        <v>1488</v>
+      </c>
       <c r="G401" s="7"/>
     </row>
     <row r="402" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12612,8 +12846,8 @@
         <v>928</v>
       </c>
       <c r="E402" s="7"/>
-      <c r="F402" s="7" t="s">
-        <v>1466</v>
+      <c r="F402" s="22" t="s">
+        <v>1488</v>
       </c>
       <c r="G402" s="7"/>
     </row>
@@ -12631,8 +12865,8 @@
         <v>933</v>
       </c>
       <c r="E403" s="7"/>
-      <c r="F403" s="7" t="s">
-        <v>1490</v>
+      <c r="F403" s="27" t="s">
+        <v>1511</v>
       </c>
       <c r="G403" s="7"/>
     </row>
@@ -12651,7 +12885,7 @@
       </c>
       <c r="E404" s="7"/>
       <c r="F404" s="7" t="s">
-        <v>1490</v>
+        <v>1466</v>
       </c>
       <c r="G404" s="7"/>
     </row>
@@ -12665,7 +12899,9 @@
       <c r="C405" s="8"/>
       <c r="D405" s="9"/>
       <c r="E405" s="9"/>
-      <c r="F405" s="9"/>
+      <c r="F405" s="7" t="s">
+        <v>1490</v>
+      </c>
       <c r="G405" s="9"/>
     </row>
     <row r="406" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12699,9 +12935,7 @@
         <v>943</v>
       </c>
       <c r="E407" s="7"/>
-      <c r="F407" s="7" t="s">
-        <v>1496</v>
-      </c>
+      <c r="F407" s="9"/>
       <c r="G407" s="7"/>
     </row>
     <row r="408" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12718,9 +12952,7 @@
         <v>941</v>
       </c>
       <c r="E408" s="7"/>
-      <c r="F408" s="7" t="s">
-        <v>1496</v>
-      </c>
+      <c r="F408" s="7"/>
       <c r="G408" s="7"/>
     </row>
     <row r="409" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12795,7 +13027,7 @@
       </c>
       <c r="E412" s="7"/>
       <c r="F412" s="7" t="s">
-        <v>1466</v>
+        <v>1496</v>
       </c>
       <c r="G412" s="7"/>
     </row>
@@ -12814,7 +13046,7 @@
       </c>
       <c r="E413" s="7"/>
       <c r="F413" s="7" t="s">
-        <v>1466</v>
+        <v>1496</v>
       </c>
       <c r="G413" s="7"/>
     </row>
@@ -12890,7 +13122,7 @@
       </c>
       <c r="E417" s="7"/>
       <c r="F417" s="7" t="s">
-        <v>1490</v>
+        <v>1466</v>
       </c>
       <c r="G417" s="7"/>
     </row>
@@ -12909,7 +13141,7 @@
       </c>
       <c r="E418" s="7"/>
       <c r="F418" s="7" t="s">
-        <v>1490</v>
+        <v>1466</v>
       </c>
       <c r="G418" s="7"/>
     </row>
@@ -12966,7 +13198,7 @@
       </c>
       <c r="E421" s="7"/>
       <c r="F421" s="7" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="G421" s="7"/>
     </row>
@@ -12984,7 +13216,9 @@
         <v>973</v>
       </c>
       <c r="E422" s="7"/>
-      <c r="F422" s="7"/>
+      <c r="F422" s="7" t="s">
+        <v>1490</v>
+      </c>
       <c r="G422" s="7"/>
     </row>
     <row r="423" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13001,8 +13235,8 @@
         <v>981</v>
       </c>
       <c r="E423" s="7"/>
-      <c r="F423" s="22" t="s">
-        <v>1490</v>
+      <c r="F423" s="7" t="s">
+        <v>1497</v>
       </c>
       <c r="G423" s="7"/>
     </row>
@@ -13020,8 +13254,8 @@
         <v>979</v>
       </c>
       <c r="E424" s="7"/>
-      <c r="F424" s="22" t="s">
-        <v>1488</v>
+      <c r="F424" s="27" t="s">
+        <v>1511</v>
       </c>
       <c r="G424" s="7"/>
     </row>
@@ -13040,7 +13274,7 @@
       </c>
       <c r="E425" s="7"/>
       <c r="F425" s="22" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="G425" s="7"/>
     </row>
@@ -13154,7 +13388,7 @@
       </c>
       <c r="E431" s="7"/>
       <c r="F431" s="22" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="G431" s="7"/>
     </row>
@@ -13191,8 +13425,8 @@
         <v>1005</v>
       </c>
       <c r="E433" s="7"/>
-      <c r="F433" s="26" t="s">
-        <v>1498</v>
+      <c r="F433" s="22" t="s">
+        <v>1493</v>
       </c>
       <c r="G433" s="7"/>
     </row>
@@ -13229,8 +13463,8 @@
         <v>1008</v>
       </c>
       <c r="E435" s="7"/>
-      <c r="F435" s="22" t="s">
-        <v>1488</v>
+      <c r="F435" s="26" t="s">
+        <v>1498</v>
       </c>
       <c r="G435" s="7"/>
     </row>
@@ -13286,8 +13520,8 @@
         <v>1451</v>
       </c>
       <c r="E438" s="7"/>
-      <c r="F438" s="24" t="s">
-        <v>1490</v>
+      <c r="F438" s="22" t="s">
+        <v>1488</v>
       </c>
       <c r="G438" s="7"/>
     </row>
@@ -13324,8 +13558,8 @@
         <v>1020</v>
       </c>
       <c r="E440" s="7"/>
-      <c r="F440" s="22" t="s">
-        <v>1488</v>
+      <c r="F440" s="24" t="s">
+        <v>1490</v>
       </c>
       <c r="G440" s="7"/>
     </row>
@@ -13381,7 +13615,9 @@
         <v>1014</v>
       </c>
       <c r="E443" s="7"/>
-      <c r="F443" s="7"/>
+      <c r="F443" s="22" t="s">
+        <v>1488</v>
+      </c>
       <c r="G443" s="7"/>
     </row>
     <row r="444" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13398,7 +13634,9 @@
         <v>1032</v>
       </c>
       <c r="E444" s="7"/>
-      <c r="F444" s="7"/>
+      <c r="F444" s="22" t="s">
+        <v>1488</v>
+      </c>
       <c r="G444" s="7"/>
     </row>
     <row r="445" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13415,7 +13653,9 @@
         <v>1452</v>
       </c>
       <c r="E445" s="7"/>
-      <c r="F445" s="7"/>
+      <c r="F445" s="22" t="s">
+        <v>1467</v>
+      </c>
       <c r="G445" s="7"/>
     </row>
     <row r="446" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13432,7 +13672,9 @@
         <v>1451</v>
       </c>
       <c r="E446" s="7"/>
-      <c r="F446" s="7"/>
+      <c r="F446" s="22" t="s">
+        <v>1467</v>
+      </c>
       <c r="G446" s="7"/>
     </row>
     <row r="447" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13536,7 +13778,7 @@
       <c r="E452" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F452" s="14"/>
+      <c r="F452" s="7"/>
       <c r="G452" s="14"/>
     </row>
     <row r="453" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13555,7 +13797,7 @@
       <c r="E453" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F453" s="14"/>
+      <c r="F453" s="7"/>
       <c r="G453" s="14"/>
     </row>
     <row r="454" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13574,7 +13816,9 @@
       <c r="E454" s="14" t="s">
         <v>1468</v>
       </c>
-      <c r="F454" s="14"/>
+      <c r="F454" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G454" s="14"/>
     </row>
     <row r="455" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13593,7 +13837,9 @@
       <c r="E455" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F455" s="14"/>
+      <c r="F455" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G455" s="14"/>
     </row>
     <row r="456" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13612,7 +13858,9 @@
       <c r="E456" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F456" s="14"/>
+      <c r="F456" s="27" t="s">
+        <v>1505</v>
+      </c>
       <c r="G456" s="14"/>
     </row>
     <row r="457" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13629,8 +13877,8 @@
         <v>1453</v>
       </c>
       <c r="E457" s="7"/>
-      <c r="F457" s="25" t="s">
-        <v>1466</v>
+      <c r="F457" s="27" t="s">
+        <v>1505</v>
       </c>
       <c r="G457" s="7"/>
     </row>
@@ -13648,8 +13896,8 @@
         <v>1066</v>
       </c>
       <c r="E458" s="7"/>
-      <c r="F458" s="25" t="s">
-        <v>1466</v>
+      <c r="F458" s="27" t="s">
+        <v>1505</v>
       </c>
       <c r="G458" s="7"/>
     </row>
@@ -14009,7 +14257,9 @@
         <v>1113</v>
       </c>
       <c r="E477" s="7"/>
-      <c r="F477" s="7"/>
+      <c r="F477" s="25" t="s">
+        <v>1466</v>
+      </c>
       <c r="G477" s="7"/>
     </row>
     <row r="478" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14026,7 +14276,9 @@
         <v>1457</v>
       </c>
       <c r="E478" s="7"/>
-      <c r="F478" s="7"/>
+      <c r="F478" s="25" t="s">
+        <v>1466</v>
+      </c>
       <c r="G478" s="7"/>
     </row>
     <row r="479" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14317,7 +14569,7 @@
       <c r="E495" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F495" s="14"/>
+      <c r="F495" s="7"/>
       <c r="G495" s="14"/>
     </row>
     <row r="496" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14336,7 +14588,7 @@
       <c r="E496" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F496" s="14"/>
+      <c r="F496" s="7"/>
       <c r="G496" s="14"/>
     </row>
     <row r="497" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14372,7 +14624,7 @@
         <v>1160</v>
       </c>
       <c r="E498" s="7"/>
-      <c r="F498" s="7"/>
+      <c r="F498" s="14"/>
       <c r="G498" s="7"/>
     </row>
     <row r="499" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14389,7 +14641,7 @@
         <v>1163</v>
       </c>
       <c r="E499" s="7"/>
-      <c r="F499" s="7"/>
+      <c r="F499" s="14"/>
       <c r="G499" s="7"/>
     </row>
     <row r="500" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14425,9 +14677,7 @@
       <c r="E501" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F501" s="7" t="s">
-        <v>1479</v>
-      </c>
+      <c r="F501" s="7"/>
       <c r="G501" s="14"/>
     </row>
     <row r="502" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14446,7 +14696,7 @@
       <c r="E502" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F502" s="14"/>
+      <c r="F502" s="7"/>
       <c r="G502" s="14"/>
     </row>
     <row r="503" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14465,7 +14715,9 @@
       <c r="E503" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F503" s="14"/>
+      <c r="F503" s="7" t="s">
+        <v>1479</v>
+      </c>
       <c r="G503" s="14"/>
     </row>
     <row r="504" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14539,7 +14791,7 @@
         <v>1181</v>
       </c>
       <c r="E507" s="7"/>
-      <c r="F507" s="7"/>
+      <c r="F507" s="14"/>
       <c r="G507" s="7"/>
     </row>
     <row r="508" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14556,7 +14808,7 @@
         <v>1183</v>
       </c>
       <c r="E508" s="7"/>
-      <c r="F508" s="7"/>
+      <c r="F508" s="14"/>
       <c r="G508" s="7"/>
     </row>
     <row r="509" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14828,9 +15080,7 @@
         <v>1229</v>
       </c>
       <c r="E524" s="7"/>
-      <c r="F524" s="7" t="s">
-        <v>1478</v>
-      </c>
+      <c r="F524" s="7"/>
       <c r="G524" s="7"/>
     </row>
     <row r="525" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14864,7 +15114,9 @@
         <v>1235</v>
       </c>
       <c r="E526" s="7"/>
-      <c r="F526" s="7"/>
+      <c r="F526" s="7" t="s">
+        <v>1478</v>
+      </c>
       <c r="G526" s="7"/>
     </row>
     <row r="527" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15019,7 +15271,7 @@
       <c r="E535" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F535" s="14"/>
+      <c r="F535" s="7"/>
       <c r="G535" s="14"/>
     </row>
     <row r="536" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15074,7 +15326,7 @@
       <c r="E538" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F538" s="14"/>
+      <c r="F538" s="7"/>
       <c r="G538" s="14"/>
     </row>
     <row r="539" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15226,9 +15478,7 @@
       <c r="E546" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F546" s="7" t="s">
-        <v>1479</v>
-      </c>
+      <c r="F546" s="14"/>
       <c r="G546" s="14"/>
     </row>
     <row r="547" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15247,9 +15497,7 @@
       <c r="E547" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F547" s="7" t="s">
-        <v>1479</v>
-      </c>
+      <c r="F547" s="14"/>
       <c r="G547" s="14"/>
     </row>
     <row r="548" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15268,8 +15516,8 @@
       <c r="E548" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F548" s="17" t="s">
-        <v>1482</v>
+      <c r="F548" s="7" t="s">
+        <v>1479</v>
       </c>
       <c r="G548" s="14"/>
     </row>
@@ -15290,7 +15538,7 @@
         <v>1467</v>
       </c>
       <c r="F549" s="7" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G549" s="14"/>
     </row>
@@ -15310,8 +15558,8 @@
       <c r="E550" s="7" t="s">
         <v>1466</v>
       </c>
-      <c r="F550" s="7" t="s">
-        <v>1480</v>
+      <c r="F550" s="17" t="s">
+        <v>1482</v>
       </c>
       <c r="G550" s="7"/>
     </row>
@@ -15416,7 +15664,7 @@
         <v>1467</v>
       </c>
       <c r="F555" s="7" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="G555" s="14"/>
     </row>
@@ -15437,7 +15685,7 @@
         <v>1467</v>
       </c>
       <c r="F556" s="7" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="G556" s="14"/>
     </row>
@@ -15457,8 +15705,8 @@
       <c r="E557" s="14" t="s">
         <v>1468</v>
       </c>
-      <c r="F557" s="18" t="s">
-        <v>1481</v>
+      <c r="F557" s="7" t="s">
+        <v>1479</v>
       </c>
       <c r="G557" s="14"/>
     </row>
@@ -15479,7 +15727,7 @@
         <v>1468</v>
       </c>
       <c r="F558" s="7" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G558" s="14"/>
     </row>
@@ -15499,8 +15747,8 @@
       <c r="E559" s="14" t="s">
         <v>1466</v>
       </c>
-      <c r="F559" s="7" t="s">
-        <v>1480</v>
+      <c r="F559" s="18" t="s">
+        <v>1481</v>
       </c>
       <c r="G559" s="14"/>
     </row>
@@ -15562,7 +15810,9 @@
       <c r="E562" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="F562" s="14"/>
+      <c r="F562" s="7" t="s">
+        <v>1480</v>
+      </c>
       <c r="G562" s="14"/>
     </row>
     <row r="563" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15581,7 +15831,9 @@
       <c r="E563" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F563" s="14"/>
+      <c r="F563" s="7" t="s">
+        <v>1480</v>
+      </c>
       <c r="G563" s="14"/>
     </row>
     <row r="564" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15638,9 +15890,7 @@
       <c r="E566" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F566" s="7" t="s">
-        <v>1480</v>
-      </c>
+      <c r="F566" s="14"/>
       <c r="G566" s="14"/>
     </row>
     <row r="567" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15659,9 +15909,7 @@
       <c r="E567" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F567" s="7" t="s">
-        <v>1480</v>
-      </c>
+      <c r="F567" s="14"/>
       <c r="G567" s="14"/>
     </row>
     <row r="568" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15680,7 +15928,9 @@
       <c r="E568" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F568" s="14"/>
+      <c r="F568" s="7" t="s">
+        <v>1480</v>
+      </c>
       <c r="G568" s="14"/>
     </row>
     <row r="569" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15699,7 +15949,9 @@
       <c r="E569" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="F569" s="14"/>
+      <c r="F569" s="7" t="s">
+        <v>1480</v>
+      </c>
       <c r="G569" s="14"/>
     </row>
     <row r="570" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15735,7 +15987,7 @@
         <v>1353</v>
       </c>
       <c r="E571" s="7"/>
-      <c r="F571" s="7"/>
+      <c r="F571" s="14"/>
       <c r="G571" s="7"/>
     </row>
     <row r="572" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15752,9 +16004,7 @@
         <v>1461</v>
       </c>
       <c r="E572" s="7"/>
-      <c r="F572" s="7" t="s">
-        <v>1499</v>
-      </c>
+      <c r="F572" s="14"/>
       <c r="G572" s="7"/>
     </row>
     <row r="573" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15771,9 +16021,7 @@
         <v>1356</v>
       </c>
       <c r="E573" s="7"/>
-      <c r="F573" s="7" t="s">
-        <v>1499</v>
-      </c>
+      <c r="F573" s="7"/>
       <c r="G573" s="7"/>
     </row>
     <row r="574" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16018,7 +16266,9 @@
         <v>1385</v>
       </c>
       <c r="E586" s="7"/>
-      <c r="F586" s="7"/>
+      <c r="F586" s="7" t="s">
+        <v>1499</v>
+      </c>
       <c r="G586" s="7"/>
     </row>
     <row r="587" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16035,7 +16285,9 @@
         <v>1390</v>
       </c>
       <c r="E587" s="7"/>
-      <c r="F587" s="7"/>
+      <c r="F587" s="7" t="s">
+        <v>1499</v>
+      </c>
       <c r="G587" s="7"/>
     </row>
     <row r="588" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16069,9 +16321,7 @@
         <v>1396</v>
       </c>
       <c r="E589" s="7"/>
-      <c r="F589" s="7" t="s">
-        <v>1499</v>
-      </c>
+      <c r="F589" s="7"/>
       <c r="G589" s="7"/>
     </row>
     <row r="590" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16105,7 +16355,9 @@
         <v>1403</v>
       </c>
       <c r="E591" s="7"/>
-      <c r="F591" s="7"/>
+      <c r="F591" s="7" t="s">
+        <v>1499</v>
+      </c>
       <c r="G591" s="7"/>
     </row>
     <row r="592" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16377,8 +16629,14 @@
         <v>1438</v>
       </c>
       <c r="E607" s="12"/>
-      <c r="F607" s="12"/>
+      <c r="F607" s="7"/>
       <c r="G607" s="12"/>
+    </row>
+    <row r="608" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F608" s="7"/>
+    </row>
+    <row r="609" spans="6:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F609" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E607"/>
